--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_script\auto_framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A78494-27C2-424C-9C80-4EFE57BFE004}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A131CE9-0A9F-41F7-8609-15832F778376}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/member/register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,7 +89,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"18298461001","pwd":"12345678"}</t>
+    <t>{"mobilephone":"15800000001","pwd":"12345678"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,22 +418,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -477,13 +475,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -492,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -503,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -516,33 +514,6 @@
       </c>
       <c r="H3" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -1,121 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_script\auto_framework\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A131CE9-0A9F-41F7-8609-15832F778376}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12720" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>case_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>actual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"12345678"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
-  </si>
-  <si>
-    <t>expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15800000001","pwd":"12345678"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,27 +50,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,108 +395,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col customWidth="1" max="2" min="1" style="1" width="9"/>
+    <col customWidth="1" max="3" min="3" style="1" width="11.109375"/>
+    <col customWidth="1" max="5" min="4" style="1" width="9"/>
+    <col customWidth="1" max="6" min="6" style="1" width="27.21875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="32.21875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="10.21875"/>
+    <col customWidth="1" max="10" min="9" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="11" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="27.6" r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"18298460001","pwd":""}</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>手机号为空</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>手机号已存在</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#exist_phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>测试失败</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>注册成功</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#new_phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>测试失败</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -62,74 +62,6 @@
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12720" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14715" windowWidth="16770" xWindow="3315" yWindow="210"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -334,20 +336,22 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="9"/>
-    <col customWidth="1" max="3" min="3" style="1" width="11.109375"/>
-    <col customWidth="1" max="5" min="4" style="1" width="9"/>
-    <col customWidth="1" max="6" min="6" style="1" width="27.21875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="32.21875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="10.21875"/>
-    <col customWidth="1" max="10" min="9" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="11" style="1" width="9"/>
+    <col customWidth="1" max="1" min="1" style="1" width="7.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="15.625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="9"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.5"/>
+    <col customWidth="1" max="7" min="7" style="1" width="21"/>
+    <col customWidth="1" max="8" min="8" style="1" width="10.25"/>
+    <col customWidth="1" max="13" min="9" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="14" style="1" width="9"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="27.6" r="1">
@@ -518,11 +522,11 @@
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>测试失败</t>
+          <t>测试通过</t>
         </is>
       </c>
     </row>
@@ -565,7 +569,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>测试失败</t>
+          <t>测试通过</t>
         </is>
       </c>
     </row>
@@ -573,4 +577,528 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="6" min="6" width="28.25"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="1">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"18298000000","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="1">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>手机号为空</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="1">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>手机号已存在</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#exist_phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="1">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>注册成功</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#new_phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="8.5"/>
+    <col customWidth="1" max="2" min="2" width="13.875"/>
+    <col customWidth="1" max="3" min="3" width="11"/>
+    <col customWidth="1" max="4" min="4" width="16.875"/>
+    <col customWidth="1" max="6" min="6" width="34.75"/>
+    <col customWidth="1" max="7" min="7" width="19.625"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="48.75" r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>负数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"member_id":"#member_id#","amount":-1}</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42.75" r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"member_id":"#member_id#","amount":"abcd"}</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42.75" r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>三位小数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"member_id":"#member_id#","amount":11.111}</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42.75" r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>充值超过50万</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"member_id":"#member_id#","amount":500001}</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42.75" r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>用户不正确</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"member_id":"#wrongr_id#","amount":100}</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42.75" r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"member_id":"#member_id#","amount":100}</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -64,6 +64,74 @@
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14715" windowWidth="16770" xWindow="240" yWindow="270"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14715" windowWidth="16770" xWindow="3315" yWindow="210"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="invest" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -65,6 +64,74 @@
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,8 +418,8 @@
     <col customWidth="1" max="6" min="6" style="1" width="29.5"/>
     <col customWidth="1" max="7" min="7" style="1" width="21"/>
     <col customWidth="1" max="8" min="8" style="1" width="10.25"/>
-    <col customWidth="1" max="16" min="9" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="17" style="1" width="9"/>
+    <col customWidth="1" max="13" min="9" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="14" style="1" width="9"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="27.6" r="1">
@@ -588,7 +655,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1102,265 +1169,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" max="3" min="3" width="14.75"/>
-    <col customWidth="1" max="6" min="6" width="57.625"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>model_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>case_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>headers</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="85.5" r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>投资</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>投资金额为空</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>/member/invest</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{"member_id":"#member_id#","loan_id":"#loan_id#"}</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="85.5" r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>投资</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>投资金额为负数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>/member/invest</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":-3}</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="85.5" r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>投资</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>投资金额不是100的倍数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>/member/invest</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":103}</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="85.5" r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>投资</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>投资金额超过余额</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>/member/invest</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":*above_balance*}</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="85.5" r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>投资</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>/member/invest</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":100}</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>